--- a/data/LTER_data_sources.xlsx
+++ b/data/LTER_data_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanhardison/Documents/git/ecosystem-thresholds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A21F18-FBC5-874B-B6D6-F6C95DB643F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15019E-2B37-7144-8E1C-1C7E941BEFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="520" windowWidth="28700" windowHeight="18920" xr2:uid="{9AEF5E22-A275-1A4E-A2EE-507D5097F363}"/>
+    <workbookView xWindow="36540" yWindow="460" windowWidth="28700" windowHeight="18920" xr2:uid="{9AEF5E22-A275-1A4E-A2EE-507D5097F363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="285">
   <si>
     <t>Palmer</t>
   </si>
@@ -747,9 +747,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Need to be downloaded</t>
-  </si>
-  <si>
     <t>Downloaded</t>
   </si>
   <si>
@@ -760,13 +757,142 @@
   </si>
   <si>
     <t>LTER Site</t>
+  </si>
+  <si>
+    <t>Beaufort Lagoon</t>
+  </si>
+  <si>
+    <t>Polar; coastal to continental slope marine</t>
+  </si>
+  <si>
+    <t>https://arcticdata.io/catalog/view/doi:10.18739/A22C77</t>
+  </si>
+  <si>
+    <t>Niskin Bottle Data (chlorophyll, nutrients, picoplankton)</t>
+  </si>
+  <si>
+    <t>Needs to be downloaded</t>
+  </si>
+  <si>
+    <t>https://arcticdata.io/catalog/view/doi:10.18739/A20K26B55</t>
+  </si>
+  <si>
+    <t>Discrete water samples collected from the Conductivity-Temperature-Depth rosette at specific depths, Northern Bering Sea to Chukchi Sea, 2016</t>
+  </si>
+  <si>
+    <t>Ocean sediment grain size, nutrient, and chrolophyll data from the United States Coast Guard Cutter Healy (HLY1201), Barrow Canyon, Chukchi Sea, 2012</t>
+  </si>
+  <si>
+    <t>https://arcticdata.io/catalog/view/doi:10.18739/A2BR8MG32</t>
+  </si>
+  <si>
+    <t>Nutrient, oxygen 18/16 ratio, and chlorophyll data measured from water samples collected aboard the Sir Wilfred Laurier, Bering and Chukchi Seas</t>
+  </si>
+  <si>
+    <t>2010, 2012-2015</t>
+  </si>
+  <si>
+    <t>https://arcticdata.io/catalog/data</t>
+  </si>
+  <si>
+    <t>Needs to be downloaded (search "Nutrients, oxygen")</t>
+  </si>
+  <si>
+    <t>2010-2014</t>
+  </si>
+  <si>
+    <t>Needs to be downloaded (search "Niskin")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD Data </t>
+  </si>
+  <si>
+    <t>Needs to be downloaded (search "CTD")</t>
+  </si>
+  <si>
+    <t>Several between 1992 -2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Coastal Everglades </t>
+  </si>
+  <si>
+    <t>Surface Water Quality Monitoring Data collected in South Florida Coastal Waters (FCE) from June 1989 to Present</t>
+  </si>
+  <si>
+    <t>https://fcelter.fiu.edu/research/projects/sites.htm?site=TS/Ph11&amp;display=datasets&amp;keywords=&amp;authors=</t>
+  </si>
+  <si>
+    <t>Monthly monitoring fluorescence data for Shark River Slough and Taylor Slough, Everglades National Park (FCE) for October 2004 to February 2014</t>
+  </si>
+  <si>
+    <t>2004-2014</t>
+  </si>
+  <si>
+    <t>https://fcelter.fiu.edu/data/core/metadata/?datasetid=LT_PP_Fourqurean_004</t>
+  </si>
+  <si>
+    <t>2000-2019</t>
+  </si>
+  <si>
+    <t>Florida Bay Productivity Data, Everglades National Park (FCE), South Florida from September 2000 to Present</t>
+  </si>
+  <si>
+    <t>Florida Bay Nutrient Data, Everglades National Park (FCE), South Florida from August 2008 to Present</t>
+  </si>
+  <si>
+    <t>2008-2019</t>
+  </si>
+  <si>
+    <t>http://fcelter.fiu.edu/data/core/metadata/?datasetid=LT_PP_Fourqurean_002</t>
+  </si>
+  <si>
+    <t>Florida Bay Physical Data, Everglades National Park (FCE), South Florida from September 2000 to Present</t>
+  </si>
+  <si>
+    <t>http://fcelter.fiu.edu/data/core/metadata/?datasetid=PHY_Fourqurean_001</t>
+  </si>
+  <si>
+    <t>Florida Bay Seagrass Canopy Temperature Data, Everglades National Park (FCE), South Florida from December 2000 to Present</t>
+  </si>
+  <si>
+    <t>http://fcelter.fiu.edu/data/core/metadata/?datasetid=PHY_Fourqurean_002</t>
+  </si>
+  <si>
+    <t>Georgia Coastal Ecosystem</t>
+  </si>
+  <si>
+    <t>Continuous salinity, temperature and depth measurements from moored hydrographic data loggers</t>
+  </si>
+  <si>
+    <t>Needs to be downloaded (many listings; search "water quality")</t>
+  </si>
+  <si>
+    <t>https://gce-lter.marsci.uga.edu/public/app/data_catalog.asp</t>
+  </si>
+  <si>
+    <t>Surface water phytoplankton productivity for 10 Georgia Coastal Ecosystems LTER sampling sites</t>
+  </si>
+  <si>
+    <t>2001-2003</t>
+  </si>
+  <si>
+    <t>Needs to be downloaded (monthly; search "phytoplankton")</t>
+  </si>
+  <si>
+    <t>Long-term water quality monitoring in the Altamaha, Doboy and Sapelo sounds and the Duplin River near Sapelo Island, Georgia</t>
+  </si>
+  <si>
+    <t>2001-2009</t>
+  </si>
+  <si>
+    <t>https://gce-lter.marsci.uga.edu/public/app/dataset_details.asp?accession=NUT-GCEM-0909a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -801,6 +927,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -854,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -866,6 +1004,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1181,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53488573-2ABD-6D4D-903F-C4B007246FFB}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,10 +1339,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>38</v>
@@ -1228,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1237,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>43</v>
@@ -1251,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -1260,7 +1400,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>45</v>
@@ -1274,7 +1414,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -1283,7 +1423,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>47</v>
@@ -1297,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
         <v>236</v>
@@ -1306,7 +1446,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>48</v>
@@ -1320,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
         <v>232</v>
@@ -1329,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>49</v>
@@ -1343,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
         <v>232</v>
@@ -1352,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>50</v>
@@ -1366,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1375,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>52</v>
@@ -1389,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -1398,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>51</v>
@@ -1412,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -1421,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>55</v>
@@ -1435,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1444,7 +1584,7 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>53</v>
@@ -1458,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1467,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>56</v>
@@ -1481,7 +1621,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -1490,7 +1630,7 @@
         <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>92</v>
@@ -1504,7 +1644,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1513,7 +1653,7 @@
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>83</v>
@@ -1527,7 +1667,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1536,7 +1676,7 @@
         <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>85</v>
@@ -1550,7 +1690,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
         <v>236</v>
@@ -1559,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>57</v>
@@ -1573,7 +1713,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -1582,7 +1722,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>61</v>
@@ -1596,7 +1736,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1605,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>58</v>
@@ -1619,7 +1759,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
         <v>236</v>
@@ -1628,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>62</v>
@@ -1642,7 +1782,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
         <v>236</v>
@@ -1651,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>63</v>
@@ -1665,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -1674,7 +1814,7 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>34</v>
@@ -1688,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1697,7 +1837,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>74</v>
@@ -1711,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1720,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>76</v>
@@ -1734,7 +1874,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
@@ -1743,7 +1883,7 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>69</v>
@@ -1757,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
@@ -1766,7 +1906,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>69</v>
@@ -1780,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -1789,7 +1929,7 @@
         <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>69</v>
@@ -1803,7 +1943,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -1812,7 +1952,7 @@
         <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>69</v>
@@ -1826,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
@@ -1835,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>71</v>
@@ -1849,7 +1989,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
         <v>42</v>
@@ -1858,7 +1998,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>73</v>
@@ -1872,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
         <v>236</v>
@@ -1881,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>77</v>
@@ -1895,7 +2035,7 @@
         <v>79</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D31" t="s">
         <v>236</v>
@@ -1904,7 +2044,7 @@
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>80</v>
@@ -1918,7 +2058,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
         <v>232</v>
@@ -1927,7 +2067,7 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>30</v>
@@ -1950,7 +2090,7 @@
         <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>88</v>
@@ -1973,7 +2113,7 @@
         <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>93</v>
@@ -1996,7 +2136,7 @@
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>102</v>
@@ -2019,7 +2159,7 @@
         <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>101</v>
@@ -2042,7 +2182,7 @@
         <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>192</v>
@@ -2065,7 +2205,7 @@
         <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>108</v>
@@ -2088,7 +2228,7 @@
         <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>125</v>
@@ -2111,7 +2251,7 @@
         <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>124</v>
@@ -2134,7 +2274,7 @@
         <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>122</v>
@@ -2157,7 +2297,7 @@
         <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>123</v>
@@ -2180,7 +2320,7 @@
         <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>120</v>
@@ -2203,7 +2343,7 @@
         <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>127</v>
@@ -2226,7 +2366,7 @@
         <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>128</v>
@@ -2249,7 +2389,7 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>132</v>
@@ -2272,7 +2412,7 @@
         <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>133</v>
@@ -2295,7 +2435,7 @@
         <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>137</v>
@@ -2318,7 +2458,7 @@
         <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>137</v>
@@ -2341,7 +2481,7 @@
         <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -2364,7 +2504,7 @@
         <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>145</v>
@@ -2387,7 +2527,7 @@
         <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>146</v>
@@ -2410,7 +2550,7 @@
         <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>150</v>
@@ -2433,7 +2573,7 @@
         <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>151</v>
@@ -2456,7 +2596,7 @@
         <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>156</v>
@@ -2479,7 +2619,7 @@
         <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>158</v>
@@ -2502,7 +2642,7 @@
         <v>164</v>
       </c>
       <c r="F57" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>162</v>
@@ -2525,7 +2665,7 @@
         <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>161</v>
@@ -2548,7 +2688,7 @@
         <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>167</v>
@@ -2571,7 +2711,7 @@
         <v>149</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>168</v>
@@ -2594,7 +2734,7 @@
         <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>169</v>
@@ -2617,7 +2757,7 @@
         <v>149</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>172</v>
@@ -2640,7 +2780,7 @@
         <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>175</v>
@@ -2663,7 +2803,7 @@
         <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>177</v>
@@ -2686,7 +2826,7 @@
         <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G65" t="s">
         <v>181</v>
@@ -2709,7 +2849,7 @@
         <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
         <v>182</v>
@@ -2732,7 +2872,7 @@
         <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G67" t="s">
         <v>184</v>
@@ -2755,7 +2895,7 @@
         <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G68" t="s">
         <v>186</v>
@@ -2778,7 +2918,7 @@
         <v>188</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
         <v>189</v>
@@ -2801,7 +2941,7 @@
         <v>201</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>197</v>
@@ -2824,7 +2964,7 @@
         <v>201</v>
       </c>
       <c r="F71" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>197</v>
@@ -2847,7 +2987,7 @@
         <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>197</v>
@@ -2870,7 +3010,7 @@
         <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>197</v>
@@ -2893,7 +3033,7 @@
         <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>197</v>
@@ -2916,7 +3056,7 @@
         <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>207</v>
@@ -2939,7 +3079,7 @@
         <v>212</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G76" t="s">
         <v>209</v>
@@ -2962,7 +3102,7 @@
         <v>211</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G77" t="s">
         <v>209</v>
@@ -2985,7 +3125,7 @@
         <v>216</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
         <v>209</v>
@@ -3008,7 +3148,7 @@
         <v>215</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
         <v>209</v>
@@ -3031,7 +3171,7 @@
         <v>84</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>218</v>
@@ -3054,7 +3194,7 @@
         <v>95</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G81" t="s">
         <v>209</v>
@@ -3077,7 +3217,7 @@
         <v>234</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>235</v>
@@ -3100,7 +3240,7 @@
         <v>95</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>221</v>
@@ -3123,7 +3263,7 @@
         <v>223</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G84" t="s">
         <v>209</v>
@@ -3146,7 +3286,7 @@
         <v>227</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>228</v>
@@ -3169,10 +3309,332 @@
         <v>230</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90">
+        <v>2016</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91">
+        <v>2019</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G100" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3251,6 +3713,16 @@
     <hyperlink ref="G85" r:id="rId71" xr:uid="{EC179197-E2F9-CB4E-B048-F63EA44698FF}"/>
     <hyperlink ref="G86" r:id="rId72" xr:uid="{38E6D362-B241-0441-93F8-EA2063B50823}"/>
     <hyperlink ref="G82" r:id="rId73" display="https://github.com/NOAA-EDAB/ecodata/blob/4b75c3fe405c1f0848e5eb3ea839fd5888d35ed0/inst/extdata/EcoMon Nutrient Data Through June 2018.csv" xr:uid="{AB559418-F415-5247-A320-D12C0BDADE78}"/>
+    <hyperlink ref="G87" r:id="rId74" xr:uid="{DB101D25-070F-6D46-A5C6-BBFB6ADFC50D}"/>
+    <hyperlink ref="G90" r:id="rId75" xr:uid="{98138241-4130-3643-8D6D-2F5607A9F8C8}"/>
+    <hyperlink ref="G91" r:id="rId76" xr:uid="{34851286-9955-7F48-A588-B9E86E87CC03}"/>
+    <hyperlink ref="G88" r:id="rId77" xr:uid="{C41C9033-9863-C84A-AA97-EADAE6876C49}"/>
+    <hyperlink ref="G89" r:id="rId78" xr:uid="{CDC60D3F-69F4-634C-BDE8-FDE5D0E0675D}"/>
+    <hyperlink ref="G92" r:id="rId79" xr:uid="{6F68F188-0CB2-4E4D-A00D-3720BBFA20ED}"/>
+    <hyperlink ref="G93" r:id="rId80" xr:uid="{17016B02-C313-3946-8D94-CAB8AC66DDC5}"/>
+    <hyperlink ref="G94" r:id="rId81" xr:uid="{160FC946-40D7-A64B-A107-D8FE0612B314}"/>
+    <hyperlink ref="G98" r:id="rId82" xr:uid="{F756E315-1102-F241-8262-B3DE8BF9BB57}"/>
+    <hyperlink ref="G99" r:id="rId83" xr:uid="{B25474B1-0524-F440-BDD3-90E643AC3488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/LTER_data_sources.xlsx
+++ b/data/LTER_data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanhardison/Documents/git/ecosystem-thresholds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15019E-2B37-7144-8E1C-1C7E941BEFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8C6B8-FB50-0C45-9467-4210F06661EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36540" yWindow="460" windowWidth="28700" windowHeight="18920" xr2:uid="{9AEF5E22-A275-1A4E-A2EE-507D5097F363}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="295">
   <si>
     <t>Palmer</t>
   </si>
@@ -886,6 +886,36 @@
   </si>
   <si>
     <t>https://gce-lter.marsci.uga.edu/public/app/dataset_details.asp?accession=NUT-GCEM-0909a</t>
+  </si>
+  <si>
+    <t>AVISO: SATELLITE DERIVED SEA SURFACE HEIGHT ABOVE GEOID</t>
+  </si>
+  <si>
+    <t>1992-2010</t>
+  </si>
+  <si>
+    <t>https://climatedataguide.ucar.edu/climate-data/aviso-satellite-derived-sea-surface-height-above-geoid</t>
+  </si>
+  <si>
+    <t>Size fractionated CHL and PP, nutrient and hydrographic data (MARMAP)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.st.nmfs.noaa.gov/copepod/data/us-05102/</t>
+  </si>
+  <si>
+    <t>Analysis ready (K. Hyde has data; website down)</t>
+  </si>
+  <si>
+    <t>CliVEC - The Impacts of Climate Variability on Primary Productivity and Carbon Distributions in the Middle Atlantic Bight and Gulf of Maine</t>
+  </si>
+  <si>
+    <t>1997-2012</t>
+  </si>
+  <si>
+    <t>https://seabass.gsfc.nasa.gov/experiment/CliVEC</t>
   </si>
 </sst>
 </file>
@@ -941,7 +971,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,6 +1008,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -992,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1006,6 +1042,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1321,16 +1358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53488573-2ABD-6D4D-903F-C4B007246FFB}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD101"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="2" max="2" width="101.6640625" customWidth="1"/>
     <col min="3" max="3" width="36" style="6" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="6" width="18.33203125" customWidth="1"/>
@@ -3135,63 +3172,63 @@
       <c r="A79" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>214</v>
+      <c r="B79" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>217</v>
+      <c r="B80" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>240</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>205</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>219</v>
+      <c r="B81" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>240</v>
@@ -3200,38 +3237,38 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>205</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>240</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>41</v>
@@ -3240,10 +3277,10 @@
         <v>95</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="G83" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3251,114 +3288,114 @@
         <v>205</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G84" t="s">
-        <v>209</v>
+      <c r="G84" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>225</v>
+        <v>87</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>231</v>
+      <c r="G86" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>242</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>257</v>
+        <v>224</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E87" t="s">
-        <v>259</v>
+        <v>236</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3366,7 +3403,7 @@
         <v>242</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>243</v>
@@ -3375,13 +3412,13 @@
         <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3389,22 +3426,22 @@
         <v>242</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>243</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E90">
-        <v>2016</v>
+        <v>232</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3412,7 +3449,7 @@
         <v>242</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>243</v>
@@ -3420,60 +3457,60 @@
       <c r="D91" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E91">
-        <v>2019</v>
+      <c r="E91" t="s">
+        <v>252</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>261</v>
+      <c r="A92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E92" t="s">
-        <v>60</v>
+      <c r="E92">
+        <v>2016</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>263</v>
+      <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>264</v>
+        <v>190</v>
+      </c>
+      <c r="E93">
+        <v>2019</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3481,22 +3518,22 @@
         <v>260</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>266</v>
+        <v>190</v>
+      </c>
+      <c r="E94" t="s">
+        <v>60</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3504,7 +3541,7 @@
         <v>260</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>226</v>
@@ -3513,27 +3550,27 @@
         <v>39</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G95" t="s">
-        <v>270</v>
+      <c r="G95" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>271</v>
+      <c r="B96" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>266</v>
@@ -3542,15 +3579,15 @@
         <v>246</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>273</v>
+      <c r="B97" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>226</v>
@@ -3559,44 +3596,44 @@
         <v>39</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G97" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>226</v>
@@ -3605,21 +3642,21 @@
         <v>39</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>278</v>
+        <v>246</v>
+      </c>
+      <c r="G99" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>282</v>
+      <c r="B100" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>226</v>
@@ -3628,13 +3665,82 @@
         <v>190</v>
       </c>
       <c r="E100" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F100" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="F102" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G102" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3708,21 +3814,23 @@
     <hyperlink ref="G73" r:id="rId66" xr:uid="{0FD43C0A-30CF-8F44-A086-460D3AB1A39A}"/>
     <hyperlink ref="G74" r:id="rId67" xr:uid="{74935955-E369-7E46-8D2C-4227DD0B7A30}"/>
     <hyperlink ref="G75" r:id="rId68" xr:uid="{E607C3A0-02AD-DA44-9968-E2265D4E987C}"/>
-    <hyperlink ref="G80" r:id="rId69" xr:uid="{06E2A724-B370-5348-881F-299BA122188C}"/>
-    <hyperlink ref="G83" r:id="rId70" xr:uid="{389F3AA5-8D6F-9B4D-86EE-3DD7D51BF1D5}"/>
-    <hyperlink ref="G85" r:id="rId71" xr:uid="{EC179197-E2F9-CB4E-B048-F63EA44698FF}"/>
-    <hyperlink ref="G86" r:id="rId72" xr:uid="{38E6D362-B241-0441-93F8-EA2063B50823}"/>
-    <hyperlink ref="G82" r:id="rId73" display="https://github.com/NOAA-EDAB/ecodata/blob/4b75c3fe405c1f0848e5eb3ea839fd5888d35ed0/inst/extdata/EcoMon Nutrient Data Through June 2018.csv" xr:uid="{AB559418-F415-5247-A320-D12C0BDADE78}"/>
-    <hyperlink ref="G87" r:id="rId74" xr:uid="{DB101D25-070F-6D46-A5C6-BBFB6ADFC50D}"/>
-    <hyperlink ref="G90" r:id="rId75" xr:uid="{98138241-4130-3643-8D6D-2F5607A9F8C8}"/>
-    <hyperlink ref="G91" r:id="rId76" xr:uid="{34851286-9955-7F48-A588-B9E86E87CC03}"/>
-    <hyperlink ref="G88" r:id="rId77" xr:uid="{C41C9033-9863-C84A-AA97-EADAE6876C49}"/>
-    <hyperlink ref="G89" r:id="rId78" xr:uid="{CDC60D3F-69F4-634C-BDE8-FDE5D0E0675D}"/>
-    <hyperlink ref="G92" r:id="rId79" xr:uid="{6F68F188-0CB2-4E4D-A00D-3720BBFA20ED}"/>
-    <hyperlink ref="G93" r:id="rId80" xr:uid="{17016B02-C313-3946-8D94-CAB8AC66DDC5}"/>
-    <hyperlink ref="G94" r:id="rId81" xr:uid="{160FC946-40D7-A64B-A107-D8FE0612B314}"/>
-    <hyperlink ref="G98" r:id="rId82" xr:uid="{F756E315-1102-F241-8262-B3DE8BF9BB57}"/>
-    <hyperlink ref="G99" r:id="rId83" xr:uid="{B25474B1-0524-F440-BDD3-90E643AC3488}"/>
+    <hyperlink ref="G82" r:id="rId69" xr:uid="{06E2A724-B370-5348-881F-299BA122188C}"/>
+    <hyperlink ref="G85" r:id="rId70" xr:uid="{389F3AA5-8D6F-9B4D-86EE-3DD7D51BF1D5}"/>
+    <hyperlink ref="G87" r:id="rId71" xr:uid="{EC179197-E2F9-CB4E-B048-F63EA44698FF}"/>
+    <hyperlink ref="G88" r:id="rId72" xr:uid="{38E6D362-B241-0441-93F8-EA2063B50823}"/>
+    <hyperlink ref="G84" r:id="rId73" display="https://github.com/NOAA-EDAB/ecodata/blob/4b75c3fe405c1f0848e5eb3ea839fd5888d35ed0/inst/extdata/EcoMon Nutrient Data Through June 2018.csv" xr:uid="{AB559418-F415-5247-A320-D12C0BDADE78}"/>
+    <hyperlink ref="G89" r:id="rId74" xr:uid="{DB101D25-070F-6D46-A5C6-BBFB6ADFC50D}"/>
+    <hyperlink ref="G92" r:id="rId75" xr:uid="{98138241-4130-3643-8D6D-2F5607A9F8C8}"/>
+    <hyperlink ref="G93" r:id="rId76" xr:uid="{34851286-9955-7F48-A588-B9E86E87CC03}"/>
+    <hyperlink ref="G90" r:id="rId77" xr:uid="{C41C9033-9863-C84A-AA97-EADAE6876C49}"/>
+    <hyperlink ref="G91" r:id="rId78" xr:uid="{CDC60D3F-69F4-634C-BDE8-FDE5D0E0675D}"/>
+    <hyperlink ref="G94" r:id="rId79" xr:uid="{6F68F188-0CB2-4E4D-A00D-3720BBFA20ED}"/>
+    <hyperlink ref="G95" r:id="rId80" xr:uid="{17016B02-C313-3946-8D94-CAB8AC66DDC5}"/>
+    <hyperlink ref="G96" r:id="rId81" xr:uid="{160FC946-40D7-A64B-A107-D8FE0612B314}"/>
+    <hyperlink ref="G100" r:id="rId82" xr:uid="{F756E315-1102-F241-8262-B3DE8BF9BB57}"/>
+    <hyperlink ref="G101" r:id="rId83" xr:uid="{B25474B1-0524-F440-BDD3-90E643AC3488}"/>
+    <hyperlink ref="G103" r:id="rId84" xr:uid="{914ADFB0-AC46-1844-9AB4-52019EB58830}"/>
+    <hyperlink ref="G80" r:id="rId85" xr:uid="{AD73BD4D-31FB-1247-9000-85075BA92DFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
